--- a/통합 단축키 설정.xlsx
+++ b/통합 단축키 설정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\내 드라이브\Eclipse Preference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5979D33-754B-40DC-BEBC-A8D790B9E576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4B24A-474E-4C30-91C0-B8C15678A1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBB1FCDD-6763-4C9D-9483-E448E750910F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
   <si>
     <t>Format</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,14 @@
   </si>
   <si>
     <t>변수 일괄 변경 (refactoring, 프로젝트 전체 적용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try-catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try, Ctrl + Space</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65E99F8-D6AA-4F3E-AFBA-B48BDAEF3A7E}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1500,6 +1508,23 @@
       <c r="C44" t="s">
         <v>72</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F41" xr:uid="{B65E99F8-D6AA-4F3E-AFBA-B48BDAEF3A7E}">
